--- a/data/trans_camb/POLIPATOLOGIA_2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 9,17</t>
+          <t>-1,08; 9,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 13,1</t>
+          <t>1,83; 12,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,26; 19,15</t>
+          <t>8,77; 19,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 6,71</t>
+          <t>-7,48; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 8,99</t>
+          <t>-3,99; 8,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 23,56</t>
+          <t>11,16; 23,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,48</t>
+          <t>-1,88; 7,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,64</t>
+          <t>1,11; 9,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,5; 20,22</t>
+          <t>12,23; 20,26</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 67,08</t>
+          <t>-6,29; 79,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 97,48</t>
+          <t>8,85; 95,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,19; 145,8</t>
+          <t>47,47; 149,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 35,33</t>
+          <t>-29,61; 34,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 46,83</t>
+          <t>-15,78; 48,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,16; 126,42</t>
+          <t>42,31; 129,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 39,6</t>
+          <t>-9,12; 42,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 58,24</t>
+          <t>5,43; 59,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,66; 125,16</t>
+          <t>60,24; 126,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 11,21</t>
+          <t>0,16; 10,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 11,94</t>
+          <t>1,62; 12,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,58; 24,38</t>
+          <t>13,4; 24,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 9,16</t>
+          <t>-3,73; 9,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 3,58</t>
+          <t>-8,66; 4,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 21,8</t>
+          <t>9,11; 21,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,83</t>
+          <t>-1,22; 7,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,69</t>
+          <t>-2,6; 5,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,26</t>
+          <t>11,47; 20,77</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 89,52</t>
+          <t>0,79; 86,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 96,66</t>
+          <t>8,63; 100,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,62; 198,35</t>
+          <t>73,88; 203,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 41,28</t>
+          <t>-13,69; 44,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 16,33</t>
+          <t>-31,66; 18,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,45; 102,11</t>
+          <t>31,69; 100,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 44,11</t>
+          <t>-5,21; 45,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 32,63</t>
+          <t>-12,46; 32,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55,18; 119,76</t>
+          <t>51,72; 117,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 12,72</t>
+          <t>2,77; 12,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 9,81</t>
+          <t>-0,35; 10,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 16,12</t>
+          <t>-15,61; 16,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 14,1</t>
+          <t>-6,32; 13,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 13,11</t>
+          <t>-8,72; 12,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,24; 33,02</t>
+          <t>13,05; 32,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 12,05</t>
+          <t>2,97; 11,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 9,06</t>
+          <t>-0,33; 9,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 18,15</t>
+          <t>-15,47; 18,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,19; 63,82</t>
+          <t>9,19; 61,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 47,1</t>
+          <t>-1,4; 49,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,68; 74,67</t>
+          <t>-60,0; 74,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 51,95</t>
+          <t>-16,17; 45,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 46,4</t>
+          <t>-22,81; 44,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,95; 116,73</t>
+          <t>33,87; 119,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 52,17</t>
+          <t>10,54; 52,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 39,5</t>
+          <t>-2,62; 38,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,31; 73,79</t>
+          <t>-53,97; 73,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 6,87</t>
+          <t>-0,69; 6,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,66</t>
+          <t>-2,79; 4,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 13,82</t>
+          <t>6,3; 13,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,91</t>
+          <t>-4,17; 5,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,42</t>
+          <t>-4,96; 4,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,13; 47,92</t>
+          <t>11,27; 48,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,13</t>
+          <t>-0,73; 5,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,32</t>
+          <t>-2,5; 3,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,94; 37,83</t>
+          <t>10,45; 33,17</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 29,03</t>
+          <t>-2,78; 29,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 15,13</t>
+          <t>-10,45; 17,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,19; 59,18</t>
+          <t>23,27; 57,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 22,21</t>
+          <t>-13,71; 20,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 16,79</t>
+          <t>-15,83; 16,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,4; 182,32</t>
+          <t>36,67; 180,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 20,43</t>
+          <t>-2,65; 20,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 13,26</t>
+          <t>-8,98; 12,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>40,41; 147,22</t>
+          <t>38,54; 130,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 8,41</t>
+          <t>-3,42; 8,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,2; 13,33</t>
+          <t>1,79; 13,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,43; 22,02</t>
+          <t>8,62; 21,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,18; 17,77</t>
+          <t>6,21; 17,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,13; 16,56</t>
+          <t>5,88; 16,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,11; 33,36</t>
+          <t>15,52; 33,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,12; 12,27</t>
+          <t>4,18; 12,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,88</t>
+          <t>4,84; 12,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,1; 28,09</t>
+          <t>15,02; 28,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 46,53</t>
+          <t>-13,61; 46,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,86; 76,39</t>
+          <t>6,83; 74,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>37,95; 122,82</t>
+          <t>34,29; 122,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,0; 57,91</t>
+          <t>17,89; 56,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,56; 54,67</t>
+          <t>15,99; 54,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>40,28; 102,93</t>
+          <t>42,06; 104,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,57; 46,33</t>
+          <t>13,0; 45,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>15,64; 47,9</t>
+          <t>15,54; 46,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>47,05; 100,51</t>
+          <t>48,24; 102,76</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,06</t>
+          <t>-0,32; 7,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,62</t>
+          <t>-0,87; 5,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,33; 21,14</t>
+          <t>5,64; 21,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,45</t>
+          <t>2,72; 10,89</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 6,42</t>
+          <t>-1,96; 5,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,43; 10,33</t>
+          <t>1,34; 10,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,7</t>
+          <t>2,62; 9,54</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,26</t>
+          <t>-2,2; 4,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,22</t>
+          <t>1,57; 9,85</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 381,31</t>
+          <t>-12,92; 389,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 314,22</t>
+          <t>-21,69; 280,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>113,09; 1128,06</t>
+          <t>112,78; 1095,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,15; 29,21</t>
+          <t>6,54; 27,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 16,45</t>
+          <t>-4,72; 14,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>3,37; 26,31</t>
+          <t>3,11; 25,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,55; 30,2</t>
+          <t>7,23; 29,81</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 16,05</t>
+          <t>-6,18; 15,03</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2,68; 28,09</t>
+          <t>4,29; 30,21</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,51</t>
+          <t>2,58; 6,7</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,07</t>
+          <t>1,98; 6,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,6; 13,95</t>
+          <t>3,99; 14,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,54</t>
+          <t>2,73; 7,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,97</t>
+          <t>0,09; 5,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,09; 26,12</t>
+          <t>12,54; 27,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,47</t>
+          <t>3,18; 6,31</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,97</t>
+          <t>1,76; 4,88</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,74; 20,01</t>
+          <t>9,67; 19,53</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>11,54; 34,35</t>
+          <t>12,6; 36,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,45; 32,05</t>
+          <t>9,41; 32,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>14,35; 71,94</t>
+          <t>20,31; 72,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,51; 23,34</t>
+          <t>8,06; 23,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,46; 15,27</t>
+          <t>0,3; 15,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>34,62; 77,37</t>
+          <t>37,02; 80,75</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>12,18; 24,86</t>
+          <t>11,45; 24,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,87; 19,25</t>
+          <t>6,47; 18,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>36,2; 75,11</t>
+          <t>35,54; 74,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA_2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
